--- a/data/instance/50/schedule_19.xlsx
+++ b/data/instance/50/schedule_19.xlsx
@@ -406,14 +406,14 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0.0375</v>
+        <v>0.03402777777777777</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.06180555555555556</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>C21</t>
+          <t>A16</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -434,18 +434,18 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>0.007638888888888889</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.03472222222222222</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>D49</t>
+          <t>D44</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -462,18 +462,18 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.02430555555555556</v>
+        <v>0.02361111111111111</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A18</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -490,14 +490,14 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>0.04097222222222222</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.06458333333333334</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>D30</t>
+          <t>C24</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -518,14 +518,14 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.03402777777777777</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0.04513888888888889</v>
+        <v>0.05625</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>F37</t>
+          <t>D30</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -546,14 +546,14 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>0.03611111111111111</v>
+        <v>0.01805555555555555</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0.0625</v>
+        <v>0.04305555555555556</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>E8</t>
+          <t>B8</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -574,18 +574,18 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0.03958333333333333</v>
+        <v>0.04027777777777778</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>C25</t>
+          <t>D34</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -602,18 +602,18 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>0.03263888888888889</v>
+        <v>0.03055555555555555</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>0.05347222222222222</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>E8</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -630,18 +630,18 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>0.04444444444444445</v>
+        <v>0.04305555555555556</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>D48</t>
+          <t>D43</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -658,18 +658,18 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>0.01180555555555556</v>
+        <v>0.03263888888888889</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>0.03541666666666667</v>
+        <v>0.05972222222222223</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>E11</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -686,14 +686,14 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.02986111111111111</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>0.04722222222222222</v>
+        <v>0.05277777777777778</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>C11</t>
+          <t>C13</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -714,18 +714,18 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>0.009027777777777777</v>
+        <v>0.01736111111111111</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>0.03472222222222222</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>D36</t>
+          <t>D47</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -742,18 +742,18 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>0.025</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>0.04652777777777778</v>
+        <v>0.03125</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>B8</t>
+          <t>C17</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -770,18 +770,18 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>0.03958333333333333</v>
+        <v>0.02013888888888889</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>0.06111111111111111</v>
+        <v>0.04513888888888889</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>D35</t>
+          <t>A18</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -798,14 +798,14 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>0.0125</v>
+        <v>0.02708333333333333</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>0.0375</v>
+        <v>0.05416666666666667</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>E23</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -826,14 +826,14 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>0.02638888888888889</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>0.05208333333333334</v>
+        <v>0.05</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>D46</t>
+          <t>F53</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -854,18 +854,18 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>0.04444444444444445</v>
+        <v>0.04027777777777778</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>E25</t>
+          <t>F50</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -882,18 +882,18 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>0.005555555555555556</v>
+        <v>0.03402777777777777</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>0.03055555555555555</v>
+        <v>0.05694444444444444</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>C17</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -910,18 +910,18 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>0.0375</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>0.06180555555555556</v>
+        <v>0.02569444444444444</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>D45</t>
+          <t>A8</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -938,18 +938,18 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>0.01666666666666667</v>
+        <v>0</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>0.04097222222222222</v>
+        <v>0.02708333333333333</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>D31</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -966,14 +966,14 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>0.02569444444444444</v>
+        <v>0.03541666666666667</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>0.05208333333333334</v>
+        <v>0.05833333333333333</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>A18</t>
+          <t>D49</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -994,14 +994,14 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>0.02013888888888889</v>
+        <v>0.01527777777777778</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>0.04722222222222222</v>
+        <v>0.04027777777777778</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>E26</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1022,18 +1022,18 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>0.01527777777777778</v>
+        <v>0.01944444444444444</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>0.0375</v>
+        <v>0.04375</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>F60</t>
+          <t>E28</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1050,18 +1050,18 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>0.05</v>
+        <v>0.05138888888888889</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>0.07430555555555556</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>F34</t>
+          <t>A12</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1078,14 +1078,14 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.04236111111111111</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>0.08888888888888889</v>
+        <v>0.06805555555555555</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1106,18 +1106,18 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>0.07777777777777778</v>
+        <v>0.06875000000000001</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>0.1034722222222222</v>
+        <v>0.09513888888888888</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>A14</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1134,14 +1134,14 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>0.05277777777777778</v>
+        <v>0.0625</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>0.07708333333333334</v>
+        <v>0.08680555555555555</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>F54</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1162,14 +1162,14 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>0.04444444444444445</v>
+        <v>0.0625</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>0.07013888888888889</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>F59</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1190,18 +1190,18 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>0.05972222222222223</v>
+        <v>0.05208333333333334</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>0.08194444444444444</v>
+        <v>0.07361111111111111</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>D44</t>
+          <t>A20</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1218,18 +1218,18 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>0.07430555555555556</v>
+        <v>0.08194444444444444</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>0.09722222222222222</v>
+        <v>0.1076388888888889</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>B7</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1246,18 +1246,18 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>0.04791666666666667</v>
+        <v>0.05208333333333334</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>0.07152777777777777</v>
+        <v>0.07291666666666667</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>E21</t>
+          <t>D38</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1274,18 +1274,18 @@
         <v>32</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>0.05138888888888889</v>
+        <v>0.04652777777777778</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>0.075</v>
+        <v>0.07083333333333333</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>A14</t>
+          <t>E28</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1302,18 +1302,18 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>0.04930555555555555</v>
+        <v>0.0798611111111111</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>0.07361111111111111</v>
+        <v>0.1020833333333333</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>D40</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1330,18 +1330,18 @@
         <v>34</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>0.1090277777777778</v>
+        <v>0.1</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>0.1347222222222222</v>
+        <v>0.1215277777777778</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>A13</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1358,18 +1358,18 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>0.09236111111111112</v>
+        <v>0.08541666666666667</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>0.1152777777777778</v>
+        <v>0.1083333333333333</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>C21</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1386,14 +1386,14 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>0.1173611111111111</v>
+        <v>0.1194444444444445</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>0.1444444444444444</v>
+        <v>0.1451388888888889</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>F56</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -1414,14 +1414,14 @@
         <v>37</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>0.1138888888888889</v>
+        <v>0.08402777777777778</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>0.1354166666666667</v>
+        <v>0.10625</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>B6</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -1442,14 +1442,14 @@
         <v>38</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>0.1</v>
+        <v>0.11875</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>0.1229166666666667</v>
+        <v>0.1409722222222222</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>B9</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -1470,18 +1470,18 @@
         <v>39</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>0.09375</v>
+        <v>0.09652777777777778</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>0.1194444444444445</v>
+        <v>0.11875</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>D32</t>
+          <t>D30</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1498,10 +1498,10 @@
         <v>40</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>0.09166666666666666</v>
+        <v>0.08680555555555555</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>0.1138888888888889</v>
+        <v>0.1118055555555556</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1526,18 +1526,18 @@
         <v>41</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>0.1368055555555556</v>
+        <v>0.1090277777777778</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>D42</t>
+          <t>A7</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1554,18 +1554,18 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.1034722222222222</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>0.1270833333333333</v>
+        <v>0.125</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1582,14 +1582,14 @@
         <v>43</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>0.09861111111111111</v>
+        <v>0.08541666666666667</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>0.1201388888888889</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>C23</t>
+          <t>F50</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -1610,18 +1610,18 @@
         <v>44</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>0.1215277777777778</v>
+        <v>0.1048611111111111</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>0.1486111111111111</v>
+        <v>0.1256944444444444</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>B6</t>
+          <t>A18</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1638,14 +1638,14 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>0.09791666666666667</v>
+        <v>0.08819444444444445</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>0.1215277777777778</v>
+        <v>0.1104166666666667</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>B8</t>
+          <t>C20</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -1666,14 +1666,14 @@
         <v>46</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>0.1</v>
+        <v>0.08541666666666667</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>0.1229166666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>E23</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -1694,18 +1694,18 @@
         <v>47</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>0.1027777777777778</v>
+        <v>0.1236111111111111</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>0.125</v>
+        <v>0.1479166666666667</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>D35</t>
+          <t>D38</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -1722,18 +1722,18 @@
         <v>48</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>0.10625</v>
+        <v>0.1076388888888889</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>0.1291666666666667</v>
+        <v>0.1340277777777778</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>E22</t>
+          <t>F36</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -1750,18 +1750,18 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>0.1284722222222222</v>
+        <v>0.125</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>0.1506944444444444</v>
+        <v>0.1465277777777778</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>C13</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -1778,18 +1778,18 @@
         <v>50</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>0.1631944444444444</v>
+        <v>0.1277777777777778</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>0.1854166666666667</v>
+        <v>0.1527777777777778</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>D36</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
